--- a/Testing/SprintIII/TetsExploratorioSprintIII.xlsx
+++ b/Testing/SprintIII/TetsExploratorioSprintIII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohana Zapata\OneDrive\Desktop\DIGH\ESPECIALIZACION BACK\PI\ecommerce-equipo4\Testing\SprintIII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371BCBA-3FBD-4D8A-AEAE-2FCD5338C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0964E43B-422A-47FE-8096-E5E6C5229C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG009" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
   <si>
     <t>COD</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>BG004</t>
-  </si>
-  <si>
-    <t>Gonzalo Volante</t>
   </si>
   <si>
     <t>Llegue un correo que muestre el nombre del usuario con los datos de fecha y hora actualizado, con ello el link de validacion de usuario.</t>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>este campo debe contener un ojito que permita visualizar al usuario si lo prefiere cuando la esta ingresando para evitar errores.</t>
+  </si>
+  <si>
+    <t>Campos obligatorios</t>
   </si>
 </sst>
 </file>
@@ -652,6 +652,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -688,9 +691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,9 +742,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,6 +755,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,15 +881,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>170923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2520950</xdr:colOff>
+      <xdr:colOff>2394857</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>625970</xdr:rowOff>
+      <xdr:rowOff>623178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -912,8 +912,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2387600" y="6737351"/>
-          <a:ext cx="2101850" cy="1915019"/>
+          <a:off x="2324100" y="4516137"/>
+          <a:ext cx="2039257" cy="1840184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D4A84-5D00-40DF-B1E2-D8378E122AC1}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="29"/>
     </row>
@@ -1604,14 +1604,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="29"/>
     </row>
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -1666,212 +1666,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="45"/>
+      <c r="C11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="39"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="45"/>
+      <c r="C17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="39"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="46"/>
+      <c r="C18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="47"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -1888,17 +1888,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B20F51F-22E3-4038-80C7-ACF0C2A2ED38}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="29"/>
     </row>
@@ -1946,13 +1946,15 @@
       <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -1965,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="30">
-        <v>45079</v>
+        <v>45455</v>
       </c>
       <c r="E6" s="29"/>
     </row>
@@ -1975,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="29"/>
     </row>
@@ -1985,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -2007,212 +2009,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="45"/>
+      <c r="C11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="39"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="45"/>
+      <c r="C17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="39"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="46"/>
+      <c r="C18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="47"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="29"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" ht="3.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" ht="8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="29"/>
     </row>
-    <row r="41" spans="2:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -2229,17 +2231,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="29"/>
     </row>
@@ -2288,14 +2290,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -2318,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="29"/>
     </row>
@@ -2328,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -2350,212 +2352,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="45"/>
+      <c r="C11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="39"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="45"/>
+      <c r="C17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="39"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="46"/>
+      <c r="C18" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="47"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -2572,17 +2574,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2594,7 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:D22"/>
     </sheetView>
   </sheetViews>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="29"/>
     </row>
@@ -2631,14 +2633,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -2671,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -2693,212 +2695,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="46"/>
+      <c r="C18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="47"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -2915,17 +2917,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2964,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -2974,14 +2976,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="17"/>
       <c r="C5" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>13</v>
@@ -3014,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -3044,34 +3046,34 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="17"/>
-      <c r="C12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -3084,34 +3086,34 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
-      <c r="C18" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="46"/>
+      <c r="C18" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="47"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -3124,34 +3126,34 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
-      <c r="C24" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
@@ -3164,40 +3166,40 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
-      <c r="C30" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="46"/>
+      <c r="C30" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="47"/>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="17"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="17"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="19"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
@@ -3258,17 +3260,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3280,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:D22"/>
     </sheetView>
   </sheetViews>
@@ -3317,14 +3319,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -3357,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -3379,212 +3381,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="45"/>
+      <c r="C11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="39"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="45"/>
+      <c r="C17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="39"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="46"/>
+      <c r="C18" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="47"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -3601,17 +3603,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3623,7 +3625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -3660,14 +3662,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -3700,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -3722,56 +3724,56 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
       <c r="C18" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="29"/>
@@ -3802,132 +3804,132 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -3944,17 +3946,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4003,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="29"/>
     </row>
@@ -4041,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -4063,56 +4065,56 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
       <c r="C18" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="29"/>
@@ -4143,132 +4145,132 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="46"/>
+      <c r="C24" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="47"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="45"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="41"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" ht="77" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -4285,17 +4287,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4344,14 +4346,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
@@ -4384,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -4406,56 +4408,56 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="C12" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="70"/>
+        <v>32</v>
+      </c>
+      <c r="D12" s="69"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="C18" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="8"/>
@@ -4486,132 +4488,132 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="C24" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="70"/>
+        <v>34</v>
+      </c>
+      <c r="D24" s="69"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="C30" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="70"/>
+        <v>35</v>
+      </c>
+      <c r="D30" s="69"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="69"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="C37" s="63"/>
-      <c r="D37" s="70"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="2:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -4628,17 +4630,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Testing/SprintIII/TetsExploratorioSprintIII.xlsx
+++ b/Testing/SprintIII/TetsExploratorioSprintIII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohana Zapata\OneDrive\Desktop\DIGH\ESPECIALIZACION BACK\PI\ecommerce-equipo4\Testing\SprintIII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0964E43B-422A-47FE-8096-E5E6C5229C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE282CD-C354-434E-B9DE-7E8B90BD8600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG009" sheetId="11" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>El signo esta en una posicion descentralizada</t>
   </si>
   <si>
-    <t>El campo contraseña no  posee un ojito para que el usuario pueda visualizar la contraseña y evitar errores.</t>
-  </si>
-  <si>
     <t>que un ojito al dar clic sobre elpermita la visualizacion solo al usuario que se esta registrando o logeando.</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>Campos obligatorios</t>
+  </si>
+  <si>
+    <t>El campo contraseña no  posee un ojito para que el usuario pueda visualizar la contraseña y evitar errores</t>
   </si>
 </sst>
 </file>
@@ -652,45 +652,45 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +742,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,9 +758,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,15 +881,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>170923</xdr:rowOff>
+      <xdr:colOff>487485</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2394857</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>623178</xdr:rowOff>
+      <xdr:colOff>2526742</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -912,8 +912,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="4516137"/>
-          <a:ext cx="2039257" cy="1840184"/>
+          <a:off x="2460870" y="4742923"/>
+          <a:ext cx="2039257" cy="1863909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D4A84-5D00-40DF-B1E2-D8378E122AC1}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="29"/>
     </row>
@@ -1666,212 +1666,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="41"/>
+      <c r="C12" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="40"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="41"/>
+      <c r="C24" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="40"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="41"/>
+      <c r="C30" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="40"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -1888,17 +1888,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1910,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B20F51F-22E3-4038-80C7-ACF0C2A2ED38}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="29"/>
     </row>
@@ -2009,212 +2009,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" ht="8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" ht="3.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="2:5" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -2231,17 +2231,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2253,7 +2253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4DE748-1A63-4BFD-8418-FAEE93BA3456}">
   <dimension ref="B1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -2352,212 +2352,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -2574,17 +2574,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2695,212 +2695,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -2917,17 +2917,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3046,34 +3046,34 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="17"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -3086,34 +3086,34 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -3126,34 +3126,34 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
@@ -3166,40 +3166,40 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="17"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="17"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="19"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
@@ -3260,17 +3260,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3381,212 +3381,212 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -3603,17 +3603,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3724,50 +3724,50 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3804,132 +3804,132 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -3946,17 +3946,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4065,50 +4065,50 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4145,132 +4145,132 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="29"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="29"/>
     </row>
     <row r="42" spans="2:5" ht="77" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="29"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -4287,17 +4287,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
@@ -4419,39 +4419,39 @@
       <c r="C12" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -4488,10 +4488,10 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
@@ -4499,39 +4499,39 @@
       <c r="C24" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="74"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
@@ -4539,81 +4539,81 @@
       <c r="C30" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="74"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="C37" s="63"/>
-      <c r="D37" s="69"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="2:5" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -4630,17 +4630,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
